--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47392D0B-60A6-43BA-A05C-309C5441E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF269486-6E67-44EA-8AB6-03894C459842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Term</t>
   </si>
@@ -364,6 +364,30 @@
   </si>
   <si>
     <t>True/False</t>
+  </si>
+  <si>
+    <t>Expr</t>
+  </si>
+  <si>
+    <t>SimpleExpr Expr_</t>
+  </si>
+  <si>
+    <t>Expr_</t>
+  </si>
+  <si>
+    <t>RelOp</t>
+  </si>
+  <si>
+    <t>LT | GT | EQ | NE | LTE | GTE</t>
+  </si>
+  <si>
+    <t>Multiply | Divide | ….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add | Subtract | …. </t>
+  </si>
+  <si>
+    <t>(RelOP Expr_) | ε</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1000,7 @@
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -985,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C25" si="0">IF(B4&lt;&gt;"","::=","")</f>
+        <f t="shared" ref="C4:C68" si="0">IF(B4&lt;&gt;"","::=","")</f>
         <v/>
       </c>
       <c r="D4" s="2"/>
@@ -1211,6 +1235,9 @@
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1229,6 +1256,9 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1244,368 +1274,930 @@
       <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F20" s="1" t="str">
         <f>F14 &amp; "|… | PadRandI"</f>
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f>F19</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D22" t="s">
-        <v>39</v>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>D16 &amp; "| ε"</f>
-        <v>Multiply | Divide | ….| ε</v>
+        <f>F20</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>D16 &amp; "| ε"</f>
+        <v>Multiply | Divide | ….| ε</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f>F21</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>D17 &amp;" | ε"</f>
-        <v>Add | Subtract | ….  | ε</v>
+        <f>F22</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>D17 &amp;" | ε"</f>
+        <v>Add | Subtract | ….  | ε</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>F25</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>D18&amp;" | ε"</f>
+        <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C74" si="1">IF(B69&lt;&gt;"","::=","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF269486-6E67-44EA-8AB6-03894C459842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68012292-F9E7-4520-9DF1-AE6BE7A6C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Term</t>
   </si>
@@ -298,9 +298,6 @@
     </r>
   </si>
   <si>
-    <t>Literal | Identifier | …. |  PadRandI</t>
-  </si>
-  <si>
     <t>Factor Term_</t>
   </si>
   <si>
@@ -388,6 +385,39 @@
   </si>
   <si>
     <t>(RelOP Expr_) | ε</t>
+  </si>
+  <si>
+    <t>SubExpr</t>
+  </si>
+  <si>
+    <t>OpenBrac</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenBrac </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CloseBrac</t>
+    </r>
+  </si>
+  <si>
+    <t>Literal | Identifier | … | SubExpr | …. |  PadRandI</t>
   </si>
 </sst>
 </file>
@@ -833,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -1011,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1287,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1302,10 @@
         <v>::=</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,17 +1313,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,11 +1347,11 @@
         <v>::=</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>F14 &amp; "|… | PadRandI"</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
+        <f>F14 &amp; "|…| BracOpen |… | PadRandI"</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,11 +1375,11 @@
         <v>::=</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>F20</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,14 +1387,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>D16 &amp; "| ε"</f>
@@ -1385,18 +1415,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>F22</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,14 +1434,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>D17 &amp;" | ε"</f>
@@ -1432,18 +1462,18 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>F25</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |… | PadRandI</v>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,14 +1481,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>D18&amp;" | ε"</f>
@@ -1478,9 +1508,18 @@
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68012292-F9E7-4520-9DF1-AE6BE7A6C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C74B6A-B51A-4506-9F03-9CA914C5B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>Term</t>
   </si>
@@ -417,7 +417,27 @@
     </r>
   </si>
   <si>
-    <t>Literal | Identifier | … | SubExpr | …. |  PadRandI</t>
+    <t>Unary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Subtract | Not) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Subtract | Not</t>
+  </si>
+  <si>
+    <t>Literal | Identifier | Unary | SubExpr | …. |  PadRandI</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C68" si="0">IF(B4&lt;&gt;"","::=","")</f>
+        <f t="shared" ref="C4:C70" si="0">IF(B4&lt;&gt;"","::=","")</f>
         <v/>
       </c>
       <c r="D4" s="2"/>
@@ -1334,24 +1354,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f>F14 &amp; "|…| BracOpen |… | PadRandI"</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,140 +1388,140 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>F20</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
+        <f>F14 &amp;"|" &amp;F20&amp;" |BracOpen |… | PadRandI"</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>F22</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="F25" s="1" t="str">
         <f>D16 &amp; "| ε"</f>
         <v>Multiply | Divide | ….| ε</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f>F22</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>F24</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f>D17 &amp;" | ε"</f>
         <v>Add | Subtract | ….  | ε</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f>F25</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |…| BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f>D18&amp;" | ε"</f>
-        <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>F27</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,17 +1529,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>54</v>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>D18&amp;" | ε"</f>
+        <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,16 +1552,25 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1549,7 +1579,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1558,7 +1588,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1567,7 +1597,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1576,7 +1606,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1594,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1612,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1621,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1630,7 +1660,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1639,7 +1669,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1657,7 +1687,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1666,7 +1696,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C74" si="1">IF(B69&lt;&gt;"","::=","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1869,7 +1899,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1878,7 +1908,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C71:C76" si="1">IF(B71&lt;&gt;"","::=","")</f>
         <v/>
       </c>
     </row>
@@ -1913,11 +1943,19 @@
       <c r="A75">
         <v>73</v>
       </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -2232,6 +2270,16 @@
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C74B6A-B51A-4506-9F03-9CA914C5B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF36F-084D-4901-B661-7C74897FA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Term</t>
   </si>
@@ -438,6 +438,64 @@
   </si>
   <si>
     <t>Literal | Identifier | Unary | SubExpr | …. |  PadRandI</t>
+  </si>
+  <si>
+    <t>ActualParams</t>
+  </si>
+  <si>
+    <r>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ActualParams_</t>
+    </r>
+  </si>
+  <si>
+    <t>ActualParams_</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>, | ε</t>
   </si>
 </sst>
 </file>
@@ -856,23 +914,23 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
@@ -913,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -939,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -968,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1003,32 +1061,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>3</v>
       </c>
@@ -1061,19 +1119,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1108,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1118,7 +1176,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1133,7 +1191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1148,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1163,7 +1221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1178,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1193,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1208,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1226,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1244,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1253,7 +1311,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1271,7 +1329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1289,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1310,7 +1368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1328,7 +1386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1346,7 +1404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1356,7 +1414,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1374,7 +1432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1383,7 +1441,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1411,7 +1469,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1430,7 +1488,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1449,7 +1507,7 @@
         <v>Multiply | Divide | ….| ε</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1458,7 +1516,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1477,7 +1535,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>Add | Subtract | ….  | ε</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1505,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1524,7 +1582,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1543,7 +1601,7 @@
         <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1552,7 +1610,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1570,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1579,25 +1637,44 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>F30</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1606,7 +1683,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1615,7 +1692,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1624,7 +1701,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1633,7 +1710,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1642,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1651,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1660,7 +1737,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1669,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1678,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1687,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1696,7 +1773,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1705,7 +1782,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1714,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1723,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1732,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1741,7 +1818,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1750,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1759,7 +1836,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1768,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1777,7 +1854,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1786,7 +1863,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1795,7 +1872,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1804,7 +1881,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1813,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1822,7 +1899,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1831,7 +1908,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1840,7 +1917,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1849,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1858,7 +1935,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1867,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1876,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1885,7 +1962,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1894,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1903,7 +1980,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1912,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1921,7 +1998,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1930,7 +2007,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1939,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1948,7 +2025,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1957,327 +2034,327 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wayne\Desktop\cps2000 compiler\CPS2000-compiler\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF36F-084D-4901-B661-7C74897FA309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B12E3-5F8E-4913-8D34-B5F864F3A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -914,23 +914,23 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1061,32 +1061,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>3</v>
       </c>
@@ -1119,19 +1119,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>Multiply | Divide | ….| ε</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>Add | Subtract | ….  | ε</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2034,327 +2034,327 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B12E3-5F8E-4913-8D34-B5F864F3A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E91F4-B29D-4937-B52E-0ABBB7DF3734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>Term</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Literal</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>::=</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>BooleanLiteral | IntegerLiteral | FloatLiteral | ColourLiteral | PadWidth | PadHeight | PadRead | PadRandI</t>
-  </si>
-  <si>
     <r>
       <t>FloatType</t>
     </r>
@@ -203,23 +197,137 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI </t>
-  </si>
-  <si>
-    <t>MultiplicativeOp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>AdditiveOP</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Multiply </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PadRead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PadRandI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Factor Term_</t>
+  </si>
+  <si>
+    <t>Term_</t>
+  </si>
+  <si>
+    <t>SimpleExpr</t>
+  </si>
+  <si>
+    <t>Term SimpleExpr_</t>
+  </si>
+  <si>
+    <t>SimpleExpr_</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Expr</t>
+  </si>
+  <si>
+    <t>SimpleExpr Expr_</t>
+  </si>
+  <si>
+    <t>Expr_</t>
+  </si>
+  <si>
+    <t>SubExpr</t>
+  </si>
+  <si>
+    <t>Unary</t>
+  </si>
+  <si>
+    <t>Subtract | Not</t>
+  </si>
+  <si>
+    <t>ActualParams</t>
+  </si>
+  <si>
+    <t>ActualParams_</t>
+  </si>
+  <si>
+    <t>FloatType| IntegerType| BoolType| ColourType</t>
+  </si>
+  <si>
+    <t>True | False</t>
+  </si>
+  <si>
+    <t>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead</t>
+  </si>
+  <si>
+    <t>BooleanLiteral | IntegerLiteral | FloatLiteral | ColourLiteral | PadWidth | PadHeight | PadRead</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subtract </t>
     </r>
     <r>
       <rPr>
@@ -238,19 +346,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Divide | ….</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PadRead</t>
+      <t xml:space="preserve"> Not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>BracOpen</t>
+  </si>
+  <si>
+    <t>FunctionCall</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracOpen</t>
     </r>
     <r>
       <rPr>
@@ -260,17 +432,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
+      <t xml:space="preserve"> (ActualParams|ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>Expr ActualParams_</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expr ActualParams_</t>
     </r>
     <r>
       <rPr>
@@ -280,12 +479,220 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Expr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PadRandI </t>
+      <t>)|ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Comma | ε</t>
+  </si>
+  <si>
+    <t>Literal | Identifier | FunctionCall | Unary | SubExpr |  PadRandI</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiply|Divide|And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Factor Term_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiply|Divide|And |ε</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subtract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) SimpleExpr_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Add|Subtract|Or|ε</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NE|EQ|GT|GTE|LT|LTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Expr_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>NE|EQ|GT|GTE|LT|LTE | ε</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Equals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exrp</t>
+    </r>
+  </si>
+  <si>
+    <t>VarDecl</t>
+  </si>
+  <si>
+    <t>TypeLiteral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Colon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Equals </t>
     </r>
     <r>
       <rPr>
@@ -298,55 +705,235 @@
     </r>
   </si>
   <si>
-    <t>Factor Term_</t>
-  </si>
-  <si>
-    <t>Term_</t>
-  </si>
-  <si>
-    <t>(MultiplicativeOp Factor Term_) | ε</t>
-  </si>
-  <si>
-    <t>SimpleExpr</t>
-  </si>
-  <si>
-    <t>Term SimpleExpr_</t>
-  </si>
-  <si>
-    <t>SimpleExpr_</t>
-  </si>
-  <si>
-    <t>(AdditiveOP SimpleExpr_) | ε</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Add </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Subtract</t>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>PixelRange</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Print </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PixelRange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pixel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If BracOpen</t>
     </r>
     <r>
       <rPr>
@@ -356,122 +943,284 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> | …. </t>
-    </r>
-  </si>
-  <si>
-    <t>True/False</t>
-  </si>
-  <si>
-    <t>Expr</t>
-  </si>
-  <si>
-    <t>SimpleExpr Expr_</t>
-  </si>
-  <si>
-    <t>Expr_</t>
-  </si>
-  <si>
-    <t>RelOp</t>
-  </si>
-  <si>
-    <t>LT | GT | EQ | NE | LTE | GTE</t>
-  </si>
-  <si>
-    <t>Multiply | Divide | ….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add | Subtract | …. </t>
-  </si>
-  <si>
-    <t>(RelOP Expr_) | ε</t>
-  </si>
-  <si>
-    <t>SubExpr</t>
-  </si>
-  <si>
-    <t>OpenBrac</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenBrac </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CloseBrac</t>
-    </r>
-  </si>
-  <si>
-    <t>Unary</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(Subtract | Not) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <t>Subtract | Not</t>
-  </si>
-  <si>
-    <t>Literal | Identifier | Unary | SubExpr | …. |  PadRandI</t>
-  </si>
-  <si>
-    <t>ActualParams</t>
-  </si>
-  <si>
-    <r>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ActualParams_</t>
-    </r>
-  </si>
-  <si>
-    <t>ActualParams_</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block | ε)</t>
+    </r>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (VarDecl| ε)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Assignment | ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BracClose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Block</t>
+    </r>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>While BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block</t>
+    </r>
+  </si>
+  <si>
+    <t>FunDecl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(FormalParams | ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose Arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral Block</t>
+    </r>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>FormalParameter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Colon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral</t>
+    </r>
+  </si>
+  <si>
+    <t>FormalParams</t>
+  </si>
+  <si>
+    <t>FormalParams_</t>
+  </si>
+  <si>
+    <t>FormalParameter FormalParams_</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
     </r>
     <r>
       <rPr>
@@ -491,11 +1240,217 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Expr) | ε</t>
-    </r>
-  </si>
-  <si>
-    <t>, | ε</t>
+      <t>) FormalParameter FormalParams_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>CurlyBracOpen</t>
+  </si>
+  <si>
+    <t>StatementList</t>
+  </si>
+  <si>
+    <t>StatementList_</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(VarDecl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | (Assignment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | (Print </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  | (Delay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) |(Pixel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | (PixelRange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | If | For | While | (Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) | FunDecl | Block</t>
+    </r>
+  </si>
+  <si>
+    <t>Statement StatementList_</t>
+  </si>
+  <si>
+    <t>(Statement StatementList_) | ε</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CurlyBracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StatementList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CurlyBracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -544,7 +1499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -556,6 +1511,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -932,19 +1890,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -976,16 +1934,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -999,7 +1957,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1014,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -1117,126 +2075,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C3" t="str">
         <f>IF(B3&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C70" si="0">IF(B4&lt;&gt;"","::=","")</f>
+        <f t="shared" ref="C4:C76" si="0">IF(B4&lt;&gt;"","::=","")</f>
         <v/>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="str">
         <f>IF(B5&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1250,8 +2228,11 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1265,8 +2246,11 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1278,13 +2262,13 @@
         <v>::=</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1292,126 +2276,98 @@
         <v>5</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C17" si="1">IF(B12&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,17 +2375,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,209 +2396,218 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>F14 &amp;"|" &amp;F20&amp;" |BracOpen |… | PadRandI"</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+        <f>F34</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead| Identifier (function call or variable) |Subtract | Not |BracOpen | PadRandI</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C23" si="2">IF(B23&lt;&gt;"","::=","")</f>
+        <v>::=</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f>F22</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f>D16 &amp; "| ε"</f>
-        <v>Multiply | Divide | ….| ε</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>F15 &amp;"| Identifier (function call or variable) |" &amp;F18&amp;" |BracOpen | PadRandI"</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead| Identifier (function call or variable) |Subtract | Not |BracOpen | PadRandI</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f>F24</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>D17 &amp;" | ε"</f>
-        <v>Add | Subtract | ….  | ε</v>
+        <f>F26</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead| Identifier (function call or variable) |Subtract | Not |BracOpen | PadRandI</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f>F27</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>D18&amp;" | ε"</f>
-        <v>LT | GT | EQ | NE | LTE | GTE | ε</v>
+        <f>F28</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead| Identifier (function call or variable) |Subtract | Not |BracOpen | PadRandI</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>F31</f>
+        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead| Identifier (function call or variable) |Subtract | Not |BracOpen | PadRandI</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -1651,45 +2616,49 @@
       <c r="D35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>F30</f>
-        <v>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead | PadRandI |Subtract | Not |BracOpen |… | PadRandI</v>
+      <c r="F35" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,18 +2674,36 @@
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,22 +2715,40 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,9 +2764,18 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>::=</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,66 +2791,113 @@
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1845,16 +2906,25 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IF(B56&lt;&gt;"","::=","")</f>
+        <v>::=</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1863,34 +2933,66 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" | ",FALSE,F38,F37,F40,F41,F43,F44,F48,F49,F50,F46,F56,F62)</f>
+        <v>Let | Identifier | Print | Delay | PixelRange | Pixel | If | For | While | Return | Fun | CurlyBracOpen</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>F58</f>
+        <v>Let | Identifier | Print | Delay | PixelRange | Pixel | If | For | While | Return | Fun | CurlyBracOpen</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="str">
+        <f>F58</f>
+        <v>Let | Identifier | Print | Delay | PixelRange | Pixel | If | For | While | Return | Fun | CurlyBracOpen</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1899,25 +3001,43 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>::=</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1985,7 +3105,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:C76" si="1">IF(B71&lt;&gt;"","::=","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1994,7 +3114,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2003,7 +3123,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2012,7 +3132,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2021,7 +3141,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2030,7 +3150,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2038,98 +3158,122 @@
       <c r="A77">
         <v>75</v>
       </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77:C82" si="3">IF(B77&lt;&gt;"","::=","")</f>
+        <v/>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2359,9 +3503,39 @@
         <v>139</v>
       </c>
     </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B38 B40:B50 B52:B58 B60:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E91F4-B29D-4937-B52E-0ABBB7DF3734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D86C7-C651-4E74-BA5D-308AF50A5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Term</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>FunctionCall</t>
-  </si>
-  <si>
-    <t>Flag</t>
   </si>
   <si>
     <r>
@@ -2075,11 +2072,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2087,7 @@
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2109,16 +2106,13 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="str">
         <f>IF(B3&lt;&gt;"","::=","")</f>
@@ -2131,7 +2125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2142,7 +2136,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2160,7 +2154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2178,7 +2172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2232,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2250,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2295,12 +2289,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>::=</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>F34</f>
@@ -2429,10 +2423,10 @@
         <v>::=</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2441,7 @@
         <v>::=</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
@@ -2475,7 +2469,7 @@
         <v>::=</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>F15 &amp;"| Identifier (function call or variable) |" &amp;F18&amp;" |BracOpen | PadRandI"</f>
@@ -2522,10 +2516,10 @@
         <v>::=</v>
       </c>
       <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,10 +2562,10 @@
         <v>::=</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,10 +2608,10 @@
         <v>::=</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2634,10 +2628,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>25</v>
@@ -2648,17 +2642,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,7 +2676,7 @@
         <v>::=</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -2700,7 +2694,7 @@
         <v>::=</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>3</v>
@@ -2720,17 +2714,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2738,17 +2732,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,17 +2759,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,17 +2786,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2810,17 +2804,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,17 +2822,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,14 +2845,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>25</v>
@@ -2869,17 +2863,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2887,14 +2881,14 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,17 +2905,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" t="str">
         <f>IF(B56&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,14 +2932,14 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" | ",FALSE,F38,F37,F40,F41,F43,F44,F48,F49,F50,F46,F56,F62)</f>
@@ -2957,14 +2951,14 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>F58</f>
@@ -2976,14 +2970,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="str">
@@ -3006,17 +3000,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3024,17 +3018,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">

--- a/docs/ParsingTable.xlsx
+++ b/docs/ParsingTable.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\compiler assignment\compiler\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D86C7-C651-4E74-BA5D-308AF50A5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2301A77-5C1C-44C4-8C24-B5E80033CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0022C85E-498E-4BD0-8DB9-B81496F666D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Language" sheetId="2" r:id="rId2"/>
+    <sheet name="Language" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t>Divide</t>
-  </si>
-  <si>
-    <t>Multiply</t>
-  </si>
-  <si>
     <t>Delay</t>
   </si>
   <si>
@@ -201,6 +194,1211 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">PadRandI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Factor Term_</t>
+  </si>
+  <si>
+    <t>Term_</t>
+  </si>
+  <si>
+    <t>SimpleExpr</t>
+  </si>
+  <si>
+    <t>Term SimpleExpr_</t>
+  </si>
+  <si>
+    <t>SimpleExpr_</t>
+  </si>
+  <si>
+    <t>Expr</t>
+  </si>
+  <si>
+    <t>SimpleExpr Expr_</t>
+  </si>
+  <si>
+    <t>Expr_</t>
+  </si>
+  <si>
+    <t>SubExpr</t>
+  </si>
+  <si>
+    <t>Unary</t>
+  </si>
+  <si>
+    <t>Subtract | Not</t>
+  </si>
+  <si>
+    <t>ActualParams</t>
+  </si>
+  <si>
+    <t>ActualParams_</t>
+  </si>
+  <si>
+    <t>FloatType| IntegerType| BoolType| ColourType</t>
+  </si>
+  <si>
+    <t>True | False</t>
+  </si>
+  <si>
+    <t>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead</t>
+  </si>
+  <si>
+    <t>BooleanLiteral | IntegerLiteral | FloatLiteral | ColourLiteral | PadWidth | PadHeight | PadRead</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subtract </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>BracOpen</t>
+  </si>
+  <si>
+    <t>FunctionCall</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ActualParams|ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>Expr ActualParams_</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expr ActualParams_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)|ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Comma | ε</t>
+  </si>
+  <si>
+    <t>Literal | Identifier | FunctionCall | Unary | SubExpr |  PadRandI</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiply|Divide|And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Factor Term_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiply|Divide|And |ε</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subtract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) SimpleExpr_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Add|Subtract|Or|ε</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NE|EQ|GT|GTE|LT|LTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) Expr_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>NE|EQ|GT|GTE|LT|LTE | ε</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Equals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exrp</t>
+    </r>
+  </si>
+  <si>
+    <t>VarDecl</t>
+  </si>
+  <si>
+    <t>TypeLiteral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Colon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Equals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>PixelRange</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Print </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PixelRange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pixel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expr</t>
+    </r>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block | ε)</t>
+    </r>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (VarDecl| ε)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Assignment | ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BracClose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Block</t>
+    </r>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>While BracOpen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Block</t>
+    </r>
+  </si>
+  <si>
+    <t>FunDecl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Identifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(FormalParams | ε) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BracClose Arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral Block</t>
+    </r>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>FormalParameter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Colon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TypeLiteral</t>
+    </r>
+  </si>
+  <si>
+    <t>FormalParams</t>
+  </si>
+  <si>
+    <t>FormalParams_</t>
+  </si>
+  <si>
+    <t>FormalParameter FormalParams_</t>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) FormalParameter FormalParams_) | ε</t>
+    </r>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>CurlyBracOpen</t>
+  </si>
+  <si>
+    <t>StatementList</t>
+  </si>
+  <si>
+    <t>StatementList_</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(VarDecl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | (Assignment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | (Print </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  | (Delay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) |(Pixel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | (PixelRange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) | If | For | While | (Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SemiColon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) | FunDecl | Block</t>
+    </r>
+  </si>
+  <si>
+    <t>Statement StatementList_</t>
+  </si>
+  <si>
+    <t>(Statement StatementList_) | ε</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CurlyBracOpen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StatementList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CurlyBracClose</t>
+    </r>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -228,7 +1426,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
+      <t xml:space="preserve"> Comma</t>
     </r>
     <r>
       <rPr>
@@ -240,1214 +1438,6 @@
       </rPr>
       <t xml:space="preserve"> Expr</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PadRandI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <t>Factor Term_</t>
-  </si>
-  <si>
-    <t>Term_</t>
-  </si>
-  <si>
-    <t>SimpleExpr</t>
-  </si>
-  <si>
-    <t>Term SimpleExpr_</t>
-  </si>
-  <si>
-    <t>SimpleExpr_</t>
-  </si>
-  <si>
-    <t>True/False</t>
-  </si>
-  <si>
-    <t>Expr</t>
-  </si>
-  <si>
-    <t>SimpleExpr Expr_</t>
-  </si>
-  <si>
-    <t>Expr_</t>
-  </si>
-  <si>
-    <t>SubExpr</t>
-  </si>
-  <si>
-    <t>Unary</t>
-  </si>
-  <si>
-    <t>Subtract | Not</t>
-  </si>
-  <si>
-    <t>ActualParams</t>
-  </si>
-  <si>
-    <t>ActualParams_</t>
-  </si>
-  <si>
-    <t>FloatType| IntegerType| BoolType| ColourType</t>
-  </si>
-  <si>
-    <t>True | False</t>
-  </si>
-  <si>
-    <t>True | False | Int | Float | Colour | PadWidth | PadHeight | PadRead</t>
-  </si>
-  <si>
-    <t>BooleanLiteral | IntegerLiteral | FloatLiteral | ColourLiteral | PadWidth | PadHeight | PadRead</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Subtract </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BracOpen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BracClose</t>
-    </r>
-  </si>
-  <si>
-    <t>BracOpen</t>
-  </si>
-  <si>
-    <t>FunctionCall</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Identifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BracOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ActualParams|ε) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BracClose</t>
-    </r>
-  </si>
-  <si>
-    <t>Expr ActualParams_</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> expr ActualParams_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)|ε</t>
-    </r>
-  </si>
-  <si>
-    <t>Comma | ε</t>
-  </si>
-  <si>
-    <t>Literal | Identifier | FunctionCall | Unary | SubExpr |  PadRandI</t>
-  </si>
-  <si>
-    <r>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multiply|Divide|And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Factor Term_) | ε</t>
-    </r>
-  </si>
-  <si>
-    <t>Multiply|Divide|And |ε</t>
-  </si>
-  <si>
-    <r>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subtract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) SimpleExpr_) | ε</t>
-    </r>
-  </si>
-  <si>
-    <t>Add|Subtract|Or|ε</t>
-  </si>
-  <si>
-    <r>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NE|EQ|GT|GTE|LT|LTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) Expr_) | ε</t>
-    </r>
-  </si>
-  <si>
-    <t>NE|EQ|GT|GTE|LT|LTE | ε</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Identifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Equals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exrp</t>
-    </r>
-  </si>
-  <si>
-    <t>VarDecl</t>
-  </si>
-  <si>
-    <t>TypeLiteral</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Let</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Identifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Colon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TypeLiteral </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Equals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <t>Let</t>
-  </si>
-  <si>
-    <t>Pixel</t>
-  </si>
-  <si>
-    <t>PixelRange</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Print </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Delay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PixelRange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pixel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Comma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Return </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expr</t>
-    </r>
-  </si>
-  <si>
-    <t>If</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If BracOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BracClose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Else</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block | ε)</t>
-    </r>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>For BracOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (VarDecl| ε)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Assignment | ε) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BracClose </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Block</t>
-    </r>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>While BracOpen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BracClose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Block</t>
-    </r>
-  </si>
-  <si>
-    <t>FunDecl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Identifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BracOpen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(FormalParams | ε) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BracClose Arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TypeLiteral Block</t>
-    </r>
-  </si>
-  <si>
-    <t>Fun</t>
-  </si>
-  <si>
-    <t>FormalParameter</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Identifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Colon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TypeLiteral</t>
-    </r>
-  </si>
-  <si>
-    <t>FormalParams</t>
-  </si>
-  <si>
-    <t>FormalParams_</t>
-  </si>
-  <si>
-    <t>FormalParameter FormalParams_</t>
-  </si>
-  <si>
-    <r>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) FormalParameter FormalParams_) | ε</t>
-    </r>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>CurlyBracOpen</t>
-  </si>
-  <si>
-    <t>StatementList</t>
-  </si>
-  <si>
-    <t>StatementList_</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(VarDecl </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | (Assignment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) | (Print </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)  | (Delay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) |(Pixel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) | (PixelRange </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) | If | For | While | (Return </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SemiColon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) | FunDecl | Block</t>
-    </r>
-  </si>
-  <si>
-    <t>Statement StatementList_</t>
-  </si>
-  <si>
-    <t>(Statement StatementList_) | ε</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CurlyBracOpen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StatementList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CurlyBracClose</t>
-    </r>
-  </si>
-  <si>
-    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -1517,37 +1507,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1862,221 +1822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F924EA-55AB-409D-BA95-66D2A71C2B14}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0976D8-5448-4256-BFD7-80DDB9F555E6}">
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,22 +1840,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2112,17 +1863,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" t="str">
         <f>IF(B3&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,17 +1892,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="str">
         <f>IF(B5&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,17 +1910,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,17 +1928,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,17 +1946,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,17 +1964,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,17 +1982,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,17 +2000,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="str">
         <f>IF(B11&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,17 +2018,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ref="C12:C17" si="1">IF(B12&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2299,17 +2050,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,17 +2068,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,17 +2096,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f>IF(B18&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,17 +2120,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="str">
         <f>IF(B20&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,14 +2148,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>F34</f>
@@ -2416,17 +2167,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">IF(B23&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,17 +2185,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,14 +2213,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>F15 &amp;"| Identifier (function call or variable) |" &amp;F18&amp;" |BracOpen | PadRandI"</f>
@@ -2497,7 +2248,7 @@
         <v>::=</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>F26</f>
@@ -2509,17 +2260,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,14 +2287,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>F28</f>
@@ -2555,17 +2306,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,14 +2333,14 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1" t="str">
         <f>F31</f>
@@ -2601,17 +2352,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,13 +2379,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,17 +2393,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,17 +2420,17 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,17 +2438,17 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2714,17 +2465,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,17 +2483,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,17 +2510,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,17 +2537,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2804,17 +2555,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,17 +2573,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,17 +2596,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,17 +2614,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,14 +2632,14 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,17 +2656,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C56" t="str">
         <f>IF(B56&lt;&gt;"","::=","")</f>
         <v>::=</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,14 +2683,14 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" | ",FALSE,F38,F37,F40,F41,F43,F44,F48,F49,F50,F46,F56,F62)</f>
@@ -2951,14 +2702,14 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>F58</f>
@@ -2970,14 +2721,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="str">
@@ -3000,17 +2751,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,17 +2769,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
